--- a/biology/Zoologie/Euptychia_mollina/Euptychia_mollina.xlsx
+++ b/biology/Zoologie/Euptychia_mollina/Euptychia_mollina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Euptychia mollina est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,13 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia mollina a été décrit par Jacob Hübner en 1813 sous le nom de Oreas mollina[1].
-Noms vernaculaires
-Euptychia mollina se nomme Mollina Satyr en anglais[2].
-Sous-espèce
-Euptychia westwoodi suzannae Brévignon, 2005[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia mollina a été décrit par Jacob Hübner en 1813 sous le nom de Oreas mollina.
 </t>
         </is>
       </c>
@@ -543,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euptychia mollina est un papillon d'une envergure d'environ 30 mm au dessus blanc ornementé de lignes marron en feston submarginal et l'ornementation du revers, lignes et ocelles est visible en transparence[4].
-Le revers est blanc rayé de lignes marron ou uni chez Euptychia westwoodi suzannae, avec trois ocelles à l'aile antérieure dont celui proche de l'apex est noir pupillé de bleu et à l'aile postérieure une ligne de cinq ocelles dont les deux proches de l'angle anal et les deux proches de l'apex sont noirs et pupillés[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia mollina se nomme Mollina Satyr en anglais.
 </t>
         </is>
       </c>
@@ -575,13 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Selaginella[1].
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia westwoodi suzannae Brévignon, 2005.
 </t>
         </is>
       </c>
@@ -607,16 +627,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia mollina est un papillon d'une envergure d'environ 30 mm au dessus blanc ornementé de lignes marron en feston submarginal et l'ornementation du revers, lignes et ocelles est visible en transparence.
+Le revers est blanc rayé de lignes marron ou uni chez Euptychia westwoodi suzannae, avec trois ocelles à l'aile antérieure dont celui proche de l'apex est noir pupillé de bleu et à l'aile postérieure une ligne de cinq ocelles dont les deux proches de l'angle anal et les deux proches de l'apex sont noirs et pupillés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euptychia_mollina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_mollina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Selaginella.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euptychia_mollina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_mollina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia mollina est présent au Mexique, au Costa Rica, au Venezuela, en Colombie, au Brésil et en Guyane[1],[2],[3].
-Biotope
-Il réside dans la canopée[3].
-Protection
-Pas de statut de protection particulier
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia mollina est présent au Mexique, au Costa Rica, au Venezuela, en Colombie, au Brésil et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euptychia_mollina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_mollina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la canopée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euptychia_mollina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_mollina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Euptychia mollina, sur Wikimedia CommonsEuptychia mollina, sur Wikispecies
 </t>
